--- a/data/pca/factorExposure/factorExposure_2011-05-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.003612789651477886</v>
+        <v>0.01215962643132843</v>
       </c>
       <c r="C2">
-        <v>-0.002360304070793952</v>
+        <v>0.004740531917636095</v>
       </c>
       <c r="D2">
-        <v>0.04634576155111535</v>
+        <v>0.02630866171398381</v>
       </c>
       <c r="E2">
-        <v>-0.01120008042730482</v>
+        <v>-0.01676730563588648</v>
       </c>
       <c r="F2">
-        <v>0.00534477958799671</v>
+        <v>0.000840641514978518</v>
       </c>
       <c r="G2">
-        <v>0.02790056133495689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01344674690272591</v>
+      </c>
+      <c r="H2">
+        <v>0.02276413482282915</v>
+      </c>
+      <c r="I2">
+        <v>-0.03400095078238147</v>
+      </c>
+      <c r="J2">
+        <v>0.02495149968958523</v>
+      </c>
+      <c r="K2">
+        <v>-0.03333400922172723</v>
+      </c>
+      <c r="L2">
+        <v>-0.01874837016415618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.09351834474308068</v>
+        <v>0.11115961972728</v>
       </c>
       <c r="C4">
-        <v>-0.04117627123477129</v>
+        <v>-0.06672603076163938</v>
       </c>
       <c r="D4">
-        <v>0.03390779906927539</v>
+        <v>0.02516941224296756</v>
       </c>
       <c r="E4">
-        <v>0.05182776794136353</v>
+        <v>-0.01908058252062009</v>
       </c>
       <c r="F4">
-        <v>0.04149067813436368</v>
+        <v>0.1605289113811183</v>
       </c>
       <c r="G4">
-        <v>0.02165500638003984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.008732625230737544</v>
+      </c>
+      <c r="H4">
+        <v>0.01368425884318039</v>
+      </c>
+      <c r="I4">
+        <v>0.01924804094241515</v>
+      </c>
+      <c r="J4">
+        <v>-0.03068084724094883</v>
+      </c>
+      <c r="K4">
+        <v>0.09192970993263064</v>
+      </c>
+      <c r="L4">
+        <v>-0.04169678473327635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1320636107699676</v>
+        <v>0.1319427025137926</v>
       </c>
       <c r="C6">
-        <v>-0.03344822733242948</v>
+        <v>-0.04642462056300613</v>
       </c>
       <c r="D6">
-        <v>0.0452892428242203</v>
+        <v>-0.002642234062077448</v>
       </c>
       <c r="E6">
-        <v>0.03411570751045874</v>
+        <v>-0.000549658682200894</v>
       </c>
       <c r="F6">
-        <v>-0.1395108141099588</v>
+        <v>0.004206792351856118</v>
       </c>
       <c r="G6">
-        <v>-0.101933189502981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.07712173307335699</v>
+      </c>
+      <c r="H6">
+        <v>0.06485736494116461</v>
+      </c>
+      <c r="I6">
+        <v>0.2817785611003789</v>
+      </c>
+      <c r="J6">
+        <v>-0.310068679565747</v>
+      </c>
+      <c r="K6">
+        <v>-0.08763572155469619</v>
+      </c>
+      <c r="L6">
+        <v>-0.2113340603827653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.08257893241931726</v>
+        <v>0.07819233311451564</v>
       </c>
       <c r="C7">
-        <v>-0.04100495091332932</v>
+        <v>-0.06283699756452188</v>
       </c>
       <c r="D7">
-        <v>0.04713931302351496</v>
+        <v>0.03086495411952251</v>
       </c>
       <c r="E7">
-        <v>0.03415246659869909</v>
+        <v>-0.01635820941723472</v>
       </c>
       <c r="F7">
-        <v>-0.02620120647838593</v>
+        <v>0.02601709512846425</v>
       </c>
       <c r="G7">
-        <v>0.01045308325882363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006604422086068544</v>
+      </c>
+      <c r="H7">
+        <v>-0.01219331756327687</v>
+      </c>
+      <c r="I7">
+        <v>-0.002939532447978191</v>
+      </c>
+      <c r="J7">
+        <v>0.04236307917257788</v>
+      </c>
+      <c r="K7">
+        <v>0.1183680459300002</v>
+      </c>
+      <c r="L7">
+        <v>0.01875408878535993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.04014127265936727</v>
+        <v>0.04505979501745634</v>
       </c>
       <c r="C8">
-        <v>0.0002203364361841884</v>
+        <v>-0.01681966537754366</v>
       </c>
       <c r="D8">
-        <v>0.05856571260324168</v>
+        <v>0.007839886919476046</v>
       </c>
       <c r="E8">
-        <v>0.06086628152925983</v>
+        <v>-0.01794333410617528</v>
       </c>
       <c r="F8">
-        <v>0.0436664636056573</v>
+        <v>0.1426556643362391</v>
       </c>
       <c r="G8">
-        <v>0.0781476204708736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01467466846799856</v>
+      </c>
+      <c r="H8">
+        <v>0.05280506731500514</v>
+      </c>
+      <c r="I8">
+        <v>0.06235379895885217</v>
+      </c>
+      <c r="J8">
+        <v>-0.003084221797516425</v>
+      </c>
+      <c r="K8">
+        <v>0.08585867124891597</v>
+      </c>
+      <c r="L8">
+        <v>-0.0719621390797829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.08298099869962366</v>
+        <v>0.08432493864980969</v>
       </c>
       <c r="C9">
-        <v>-0.04135419698318195</v>
+        <v>-0.05860358252856736</v>
       </c>
       <c r="D9">
-        <v>0.03270649461043859</v>
+        <v>0.0236209121908638</v>
       </c>
       <c r="E9">
-        <v>0.03285842415631794</v>
+        <v>0.0005990477504962574</v>
       </c>
       <c r="F9">
-        <v>0.02357350151324641</v>
+        <v>0.1415126133974488</v>
       </c>
       <c r="G9">
-        <v>0.03571002083793653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.005723348507310036</v>
+      </c>
+      <c r="H9">
+        <v>-0.007352503128254668</v>
+      </c>
+      <c r="I9">
+        <v>0.02055624386162949</v>
+      </c>
+      <c r="J9">
+        <v>-0.006370965880525691</v>
+      </c>
+      <c r="K9">
+        <v>0.05718648918129798</v>
+      </c>
+      <c r="L9">
+        <v>-0.04093608821442544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.04215255578308896</v>
+        <v>0.1046667595714623</v>
       </c>
       <c r="C10">
-        <v>0.1553789067162874</v>
+        <v>0.1624430250841484</v>
       </c>
       <c r="D10">
-        <v>0.08253784059924754</v>
+        <v>0.05390774372179635</v>
       </c>
       <c r="E10">
-        <v>0.04431193250752249</v>
+        <v>-0.03123053729025845</v>
       </c>
       <c r="F10">
-        <v>-0.03397393760286074</v>
+        <v>-0.01268365546689848</v>
       </c>
       <c r="G10">
-        <v>0.01241412688899926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01682496907617017</v>
+      </c>
+      <c r="H10">
+        <v>-0.03750155207525511</v>
+      </c>
+      <c r="I10">
+        <v>0.004130522074255338</v>
+      </c>
+      <c r="J10">
+        <v>-0.02270477274376005</v>
+      </c>
+      <c r="K10">
+        <v>0.005317125642519968</v>
+      </c>
+      <c r="L10">
+        <v>0.05429444753198198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07093953805116807</v>
+        <v>0.07378030026860148</v>
       </c>
       <c r="C11">
-        <v>-0.05981036991696903</v>
+        <v>-0.06873562271783842</v>
       </c>
       <c r="D11">
-        <v>0.003719165954738851</v>
+        <v>0.007079524347975028</v>
       </c>
       <c r="E11">
-        <v>-0.0003900113599039887</v>
+        <v>0.02489557523416928</v>
       </c>
       <c r="F11">
-        <v>0.01474243217705636</v>
+        <v>0.1302043433952643</v>
       </c>
       <c r="G11">
-        <v>0.1306889071264866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01680432366508374</v>
+      </c>
+      <c r="H11">
+        <v>-0.05953000095512482</v>
+      </c>
+      <c r="I11">
+        <v>-0.04197528748448442</v>
+      </c>
+      <c r="J11">
+        <v>0.08997797457283005</v>
+      </c>
+      <c r="K11">
+        <v>-0.02807118057448658</v>
+      </c>
+      <c r="L11">
+        <v>-0.02806619063264187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06582550581639719</v>
+        <v>0.06800785147008956</v>
       </c>
       <c r="C12">
-        <v>-0.03399016018786421</v>
+        <v>-0.06111029548615676</v>
       </c>
       <c r="D12">
-        <v>-0.00507913565769837</v>
+        <v>0.01349667290429691</v>
       </c>
       <c r="E12">
-        <v>0.04161923704887155</v>
+        <v>0.02442311278339925</v>
       </c>
       <c r="F12">
-        <v>0.008624459039139765</v>
+        <v>0.1377045861231659</v>
       </c>
       <c r="G12">
-        <v>0.1070658186125642</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02869153283278344</v>
+      </c>
+      <c r="H12">
+        <v>-0.05612141879340334</v>
+      </c>
+      <c r="I12">
+        <v>0.003121209643653205</v>
+      </c>
+      <c r="J12">
+        <v>0.09451795482390767</v>
+      </c>
+      <c r="K12">
+        <v>-0.009173930529690517</v>
+      </c>
+      <c r="L12">
+        <v>-0.06195652269311557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.05615097078333713</v>
+        <v>0.04271177396904866</v>
       </c>
       <c r="C13">
-        <v>-0.005641797808563751</v>
+        <v>-0.03039328946681601</v>
       </c>
       <c r="D13">
-        <v>0.003800229661236865</v>
+        <v>0.007971452574475072</v>
       </c>
       <c r="E13">
-        <v>0.03119498587669223</v>
+        <v>-0.02183822166170722</v>
       </c>
       <c r="F13">
-        <v>0.05099592978564232</v>
+        <v>0.05038354601694855</v>
       </c>
       <c r="G13">
-        <v>0.008009898707750507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.007631617429602999</v>
+      </c>
+      <c r="H13">
+        <v>0.009936858288661348</v>
+      </c>
+      <c r="I13">
+        <v>0.02185927892750889</v>
+      </c>
+      <c r="J13">
+        <v>0.006027014015710256</v>
+      </c>
+      <c r="K13">
+        <v>0.04526798827037462</v>
+      </c>
+      <c r="L13">
+        <v>0.01801337712156277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.04889183220404255</v>
+        <v>0.03849191961381902</v>
       </c>
       <c r="C14">
-        <v>-0.01114728956433717</v>
+        <v>-0.02533410118947207</v>
       </c>
       <c r="D14">
-        <v>0.02231490597190735</v>
+        <v>0.01351340975551405</v>
       </c>
       <c r="E14">
-        <v>0.01534320274294611</v>
+        <v>0.01177989609625339</v>
       </c>
       <c r="F14">
-        <v>0.001276106616372937</v>
+        <v>0.05850135967008058</v>
       </c>
       <c r="G14">
-        <v>0.01331085676794832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.005668543344483038</v>
+      </c>
+      <c r="H14">
+        <v>0.03204188895576417</v>
+      </c>
+      <c r="I14">
+        <v>9.476337131171204e-05</v>
+      </c>
+      <c r="J14">
+        <v>-0.03669239758480954</v>
+      </c>
+      <c r="K14">
+        <v>0.09331973706961595</v>
+      </c>
+      <c r="L14">
+        <v>-0.03491684511449927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.03525512832946068</v>
+        <v>0.02451894016125875</v>
       </c>
       <c r="C15">
-        <v>0.008806472084518732</v>
+        <v>-0.01496549168972901</v>
       </c>
       <c r="D15">
-        <v>0.008069809028479889</v>
+        <v>-0.006770963997679789</v>
       </c>
       <c r="E15">
-        <v>0.01071071107422774</v>
+        <v>-0.0475980176479261</v>
       </c>
       <c r="F15">
-        <v>0.02050753687372371</v>
+        <v>0.007975963861724654</v>
       </c>
       <c r="G15">
-        <v>-0.0001998425179861758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03547368449857036</v>
+      </c>
+      <c r="H15">
+        <v>-0.0009163460265598398</v>
+      </c>
+      <c r="I15">
+        <v>0.0001261537075703436</v>
+      </c>
+      <c r="J15">
+        <v>-0.05388179391256809</v>
+      </c>
+      <c r="K15">
+        <v>0.06194326090941469</v>
+      </c>
+      <c r="L15">
+        <v>0.01714067827745257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.0726361756323385</v>
+        <v>0.07780425056571444</v>
       </c>
       <c r="C16">
-        <v>-0.06811372798115342</v>
+        <v>-0.0726220282071402</v>
       </c>
       <c r="D16">
-        <v>0.0169224800413265</v>
+        <v>0.003915778845359522</v>
       </c>
       <c r="E16">
-        <v>0.04238652067967068</v>
+        <v>0.01822538197568398</v>
       </c>
       <c r="F16">
-        <v>0.04336226423076597</v>
+        <v>0.1263496702703099</v>
       </c>
       <c r="G16">
-        <v>0.08370046500249097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02680476269164355</v>
+      </c>
+      <c r="H16">
+        <v>-0.0515786492696268</v>
+      </c>
+      <c r="I16">
+        <v>-0.03825154077778609</v>
+      </c>
+      <c r="J16">
+        <v>0.102940484168141</v>
+      </c>
+      <c r="K16">
+        <v>-0.002955140850632248</v>
+      </c>
+      <c r="L16">
+        <v>-0.05476258709868404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.05085893398748845</v>
+        <v>0.04536597374945613</v>
       </c>
       <c r="C20">
-        <v>-0.02589258261930973</v>
+        <v>-0.03561978253877969</v>
       </c>
       <c r="D20">
-        <v>0.00713013927557864</v>
+        <v>0.01400320053941691</v>
       </c>
       <c r="E20">
-        <v>0.01802717405663155</v>
+        <v>-0.02285139925738265</v>
       </c>
       <c r="F20">
-        <v>0.01533863498275162</v>
+        <v>0.06047393575832383</v>
       </c>
       <c r="G20">
-        <v>0.04181685616888333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01422051266360633</v>
+      </c>
+      <c r="H20">
+        <v>-0.004522874032031511</v>
+      </c>
+      <c r="I20">
+        <v>0.02800688948845262</v>
+      </c>
+      <c r="J20">
+        <v>-0.00816524879751096</v>
+      </c>
+      <c r="K20">
+        <v>0.07981551355911816</v>
+      </c>
+      <c r="L20">
+        <v>-0.01318257507604116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.02016480081026366</v>
+        <v>0.02336686928924987</v>
       </c>
       <c r="C21">
-        <v>-0.04150156729467277</v>
+        <v>-0.02224294797149845</v>
       </c>
       <c r="D21">
-        <v>-0.01039967301797825</v>
+        <v>0.001768530377426985</v>
       </c>
       <c r="E21">
-        <v>0.02501681489849228</v>
+        <v>-0.002751421727992098</v>
       </c>
       <c r="F21">
-        <v>-0.09095242769095359</v>
+        <v>0.06456998975394183</v>
       </c>
       <c r="G21">
-        <v>-0.01649582809718288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04346476649346746</v>
+      </c>
+      <c r="H21">
+        <v>-0.0938479990192642</v>
+      </c>
+      <c r="I21">
+        <v>0.05069687432770344</v>
+      </c>
+      <c r="J21">
+        <v>-0.05726057993704682</v>
+      </c>
+      <c r="K21">
+        <v>0.1095126512686626</v>
+      </c>
+      <c r="L21">
+        <v>0.07813037280244278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.03849870188899551</v>
+        <v>0.05070755209799332</v>
       </c>
       <c r="C22">
-        <v>-0.03376050616181377</v>
+        <v>-0.02538353854302814</v>
       </c>
       <c r="D22">
-        <v>-0.03739652352111512</v>
+        <v>-0.1058528976758448</v>
       </c>
       <c r="E22">
-        <v>0.5331825379592458</v>
+        <v>-0.6513114536495583</v>
       </c>
       <c r="F22">
-        <v>0.2014401303281997</v>
+        <v>-0.06160962299199883</v>
       </c>
       <c r="G22">
-        <v>-0.2317414278486913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1351349541408326</v>
+      </c>
+      <c r="H22">
+        <v>-0.07661907635598574</v>
+      </c>
+      <c r="I22">
+        <v>0.01435160302607284</v>
+      </c>
+      <c r="J22">
+        <v>0.03669324915301323</v>
+      </c>
+      <c r="K22">
+        <v>-0.04636808779552335</v>
+      </c>
+      <c r="L22">
+        <v>-0.001818983344610989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.03852011715852438</v>
+        <v>0.0511507321278975</v>
       </c>
       <c r="C23">
-        <v>-0.03424113218025177</v>
+        <v>-0.02605267756320322</v>
       </c>
       <c r="D23">
-        <v>-0.03614419111571828</v>
+        <v>-0.1061962969236476</v>
       </c>
       <c r="E23">
-        <v>0.5326826298209014</v>
+        <v>-0.6530637508261942</v>
       </c>
       <c r="F23">
-        <v>0.2022891114000508</v>
+        <v>-0.05883483671593406</v>
       </c>
       <c r="G23">
-        <v>-0.2331096467131674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1359495629140947</v>
+      </c>
+      <c r="H23">
+        <v>-0.07359178543553237</v>
+      </c>
+      <c r="I23">
+        <v>0.0152630468017605</v>
+      </c>
+      <c r="J23">
+        <v>0.03541212154630667</v>
+      </c>
+      <c r="K23">
+        <v>-0.04891226197460927</v>
+      </c>
+      <c r="L23">
+        <v>-0.003963447346308916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.08285064099664832</v>
+        <v>0.08269158712548151</v>
       </c>
       <c r="C24">
-        <v>-0.04922392244851276</v>
+        <v>-0.06606758323911915</v>
       </c>
       <c r="D24">
-        <v>0.01494079118832531</v>
+        <v>0.009898553239310314</v>
       </c>
       <c r="E24">
-        <v>0.04163211259144119</v>
+        <v>0.01431720824269223</v>
       </c>
       <c r="F24">
-        <v>0.01791658928527147</v>
+        <v>0.1233797364534051</v>
       </c>
       <c r="G24">
-        <v>0.09156709278762842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02680949110073591</v>
+      </c>
+      <c r="H24">
+        <v>-0.0693883755085007</v>
+      </c>
+      <c r="I24">
+        <v>-0.05322995135903531</v>
+      </c>
+      <c r="J24">
+        <v>0.09083789108920973</v>
+      </c>
+      <c r="K24">
+        <v>-0.03239354181871152</v>
+      </c>
+      <c r="L24">
+        <v>-0.0510018334667392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07356552139157263</v>
+        <v>0.07949772258057695</v>
       </c>
       <c r="C25">
-        <v>-0.0201793521869243</v>
+        <v>-0.0493659118609667</v>
       </c>
       <c r="D25">
-        <v>0.02058313610160691</v>
+        <v>0.02013096391852035</v>
       </c>
       <c r="E25">
-        <v>0.0362307141759969</v>
+        <v>0.02539532175766317</v>
       </c>
       <c r="F25">
-        <v>0.009863705873822621</v>
+        <v>0.1249470021269455</v>
       </c>
       <c r="G25">
-        <v>0.08866950967062537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03242627942111228</v>
+      </c>
+      <c r="H25">
+        <v>-0.04526130585806497</v>
+      </c>
+      <c r="I25">
+        <v>-0.03305409112895055</v>
+      </c>
+      <c r="J25">
+        <v>0.08889323862186076</v>
+      </c>
+      <c r="K25">
+        <v>-0.02114937169457047</v>
+      </c>
+      <c r="L25">
+        <v>-0.07160854312655343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05082407321743845</v>
+        <v>0.04197537790886726</v>
       </c>
       <c r="C26">
-        <v>-0.03232817390746958</v>
+        <v>-0.0104797383917965</v>
       </c>
       <c r="D26">
-        <v>0.03011428839637666</v>
+        <v>-0.0002606122028055908</v>
       </c>
       <c r="E26">
-        <v>-0.001741953932277359</v>
+        <v>-0.009963548468847725</v>
       </c>
       <c r="F26">
-        <v>0.02211151115629796</v>
+        <v>0.04238245879593491</v>
       </c>
       <c r="G26">
-        <v>0.004823555633699364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03310441354204578</v>
+      </c>
+      <c r="H26">
+        <v>-0.002886329980619494</v>
+      </c>
+      <c r="I26">
+        <v>-0.01129264672048725</v>
+      </c>
+      <c r="J26">
+        <v>-0.04926972311889784</v>
+      </c>
+      <c r="K26">
+        <v>0.103247503171104</v>
+      </c>
+      <c r="L26">
+        <v>0.03033687538436675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.08116263897109047</v>
+        <v>0.1336031360285693</v>
       </c>
       <c r="C28">
-        <v>0.2894914609390882</v>
+        <v>0.2943733517465053</v>
       </c>
       <c r="D28">
-        <v>0.07079413468952932</v>
+        <v>-0.009100421490333657</v>
       </c>
       <c r="E28">
-        <v>-0.02086781662528199</v>
+        <v>0.008222500884145967</v>
       </c>
       <c r="F28">
-        <v>-0.04222491936954755</v>
+        <v>0.01426259314890945</v>
       </c>
       <c r="G28">
-        <v>-0.01641071211933467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.005032128161975485</v>
+      </c>
+      <c r="H28">
+        <v>-0.01367050051274939</v>
+      </c>
+      <c r="I28">
+        <v>0.01363841562504513</v>
+      </c>
+      <c r="J28">
+        <v>0.02024681233992832</v>
+      </c>
+      <c r="K28">
+        <v>0.003341446627678297</v>
+      </c>
+      <c r="L28">
+        <v>0.01216747116798064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05397344147529179</v>
+        <v>0.04008897973594554</v>
       </c>
       <c r="C29">
-        <v>-0.008322872750136554</v>
+        <v>-0.02452330053266844</v>
       </c>
       <c r="D29">
-        <v>0.01584268157771414</v>
+        <v>0.02513024842000977</v>
       </c>
       <c r="E29">
-        <v>0.03462935327911668</v>
+        <v>-0.0003257392678579653</v>
       </c>
       <c r="F29">
-        <v>0.03387383765049004</v>
+        <v>0.0559305457960704</v>
       </c>
       <c r="G29">
-        <v>-0.004281454422726674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03235277014356882</v>
+      </c>
+      <c r="H29">
+        <v>0.01477035824982202</v>
+      </c>
+      <c r="I29">
+        <v>0.002437946161744309</v>
+      </c>
+      <c r="J29">
+        <v>-0.03478947919237593</v>
+      </c>
+      <c r="K29">
+        <v>0.09469028345430046</v>
+      </c>
+      <c r="L29">
+        <v>-0.02337078154749846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1230409534932765</v>
+        <v>0.1055361895900144</v>
       </c>
       <c r="C30">
-        <v>-0.03364571440202262</v>
+        <v>-0.05745617557477654</v>
       </c>
       <c r="D30">
-        <v>0.06176390859495655</v>
+        <v>-0.01999168016832446</v>
       </c>
       <c r="E30">
-        <v>0.1173242390673151</v>
+        <v>0.01682696406951326</v>
       </c>
       <c r="F30">
-        <v>-0.02398268424494584</v>
+        <v>0.2000964355248672</v>
       </c>
       <c r="G30">
-        <v>0.1772630251389466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.126986629915647</v>
+      </c>
+      <c r="H30">
+        <v>-0.1792452063388421</v>
+      </c>
+      <c r="I30">
+        <v>0.1900574262468579</v>
+      </c>
+      <c r="J30">
+        <v>0.05667030575667278</v>
+      </c>
+      <c r="K30">
+        <v>0.06031686081541704</v>
+      </c>
+      <c r="L30">
+        <v>-0.09246494647001217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.0541683532194905</v>
+        <v>0.04036246024174452</v>
       </c>
       <c r="C31">
-        <v>-0.01894172657112258</v>
+        <v>-0.04316609324054099</v>
       </c>
       <c r="D31">
-        <v>-0.00983313288533302</v>
+        <v>0.003907901362469019</v>
       </c>
       <c r="E31">
-        <v>0.008819017005456517</v>
+        <v>-0.005303643451250839</v>
       </c>
       <c r="F31">
-        <v>0.02653978218085405</v>
+        <v>0.02286246546318041</v>
       </c>
       <c r="G31">
-        <v>-0.02947187109538797</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01644170177300542</v>
+      </c>
+      <c r="H31">
+        <v>0.0363369393365483</v>
+      </c>
+      <c r="I31">
+        <v>-0.02801789085570038</v>
+      </c>
+      <c r="J31">
+        <v>-0.0008342718056840938</v>
+      </c>
+      <c r="K31">
+        <v>0.03204707542779919</v>
+      </c>
+      <c r="L31">
+        <v>-0.03811894993819229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.02868003028734242</v>
+        <v>0.04813013605560294</v>
       </c>
       <c r="C32">
-        <v>0.02539042729608398</v>
+        <v>-0.00223656622016407</v>
       </c>
       <c r="D32">
-        <v>-0.004250343058468332</v>
+        <v>-0.02970687256985093</v>
       </c>
       <c r="E32">
-        <v>0.07848209690527291</v>
+        <v>0.02507740509189174</v>
       </c>
       <c r="F32">
-        <v>0.08644352601335473</v>
+        <v>0.06902470862309831</v>
       </c>
       <c r="G32">
-        <v>0.04264501615021354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01048799989622231</v>
+      </c>
+      <c r="H32">
+        <v>0.006597474281565055</v>
+      </c>
+      <c r="I32">
+        <v>-0.0298289625963137</v>
+      </c>
+      <c r="J32">
+        <v>0.0002818458374228261</v>
+      </c>
+      <c r="K32">
+        <v>0.08190732916326204</v>
+      </c>
+      <c r="L32">
+        <v>-0.01385031157799458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1132099916334739</v>
+        <v>0.0970473244092592</v>
       </c>
       <c r="C33">
-        <v>-0.02581746599770349</v>
+        <v>-0.05629739450537951</v>
       </c>
       <c r="D33">
-        <v>-0.005128121009416509</v>
+        <v>-0.0009083874226607076</v>
       </c>
       <c r="E33">
-        <v>0.004278969354080835</v>
+        <v>0.02633601343569788</v>
       </c>
       <c r="F33">
-        <v>0.05864542204130262</v>
+        <v>0.07949262257225569</v>
       </c>
       <c r="G33">
-        <v>0.03491997127838601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.009046736712816925</v>
+      </c>
+      <c r="H33">
+        <v>-0.004438228108508441</v>
+      </c>
+      <c r="I33">
+        <v>-0.01519554291734458</v>
+      </c>
+      <c r="J33">
+        <v>-0.004453615485128684</v>
+      </c>
+      <c r="K33">
+        <v>0.02378177089387196</v>
+      </c>
+      <c r="L33">
+        <v>-0.02885952207931098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06017476021490468</v>
+        <v>0.06511945839799811</v>
       </c>
       <c r="C34">
-        <v>-0.04914529940012075</v>
+        <v>-0.05397837918029977</v>
       </c>
       <c r="D34">
-        <v>0.00194393132723093</v>
+        <v>0.008447202208566424</v>
       </c>
       <c r="E34">
-        <v>0.02546186004539771</v>
+        <v>0.02310599849651747</v>
       </c>
       <c r="F34">
-        <v>0.01911631777805788</v>
+        <v>0.1145354362669215</v>
       </c>
       <c r="G34">
-        <v>0.07199984036207038</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01909833973336527</v>
+      </c>
+      <c r="H34">
+        <v>-0.03583249328820039</v>
+      </c>
+      <c r="I34">
+        <v>-0.03577382082972345</v>
+      </c>
+      <c r="J34">
+        <v>0.08479809030295245</v>
+      </c>
+      <c r="K34">
+        <v>0.03039345912526711</v>
+      </c>
+      <c r="L34">
+        <v>-0.04542902081674929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.0462463027296643</v>
+        <v>0.02188236171370986</v>
       </c>
       <c r="C35">
-        <v>-0.01617683553807305</v>
+        <v>-0.02182554084097656</v>
       </c>
       <c r="D35">
-        <v>-0.01196713461000233</v>
+        <v>0.003462546347587814</v>
       </c>
       <c r="E35">
-        <v>0.01360133934034559</v>
+        <v>0.006196036979261794</v>
       </c>
       <c r="F35">
-        <v>-0.02431944378744112</v>
+        <v>0.0315482134524539</v>
       </c>
       <c r="G35">
-        <v>0.03291395277560604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.0203674267571778</v>
+      </c>
+      <c r="H35">
+        <v>-0.02179352000916498</v>
+      </c>
+      <c r="I35">
+        <v>0.01666878296482363</v>
+      </c>
+      <c r="J35">
+        <v>0.03178599794337438</v>
+      </c>
+      <c r="K35">
+        <v>0.07741815368775207</v>
+      </c>
+      <c r="L35">
+        <v>-0.01175192446428537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03561763276619846</v>
+        <v>0.02657450696370109</v>
       </c>
       <c r="C36">
-        <v>-0.006607679918908084</v>
+        <v>-0.01328767140395866</v>
       </c>
       <c r="D36">
-        <v>0.02086187595873932</v>
+        <v>0.0006527379387339239</v>
       </c>
       <c r="E36">
-        <v>0.02931930489369631</v>
+        <v>-0.01140488881634426</v>
       </c>
       <c r="F36">
-        <v>0.01234293924213089</v>
+        <v>0.064681542801296</v>
       </c>
       <c r="G36">
-        <v>0.02090602954895163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01881503453286565</v>
+      </c>
+      <c r="H36">
+        <v>-0.01009652181553596</v>
+      </c>
+      <c r="I36">
+        <v>0.008344698263475656</v>
+      </c>
+      <c r="J36">
+        <v>-0.03353056705911225</v>
+      </c>
+      <c r="K36">
+        <v>0.02930109946136185</v>
+      </c>
+      <c r="L36">
+        <v>-0.02246558641421709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.04895129583720129</v>
+        <v>0.02497002461808921</v>
       </c>
       <c r="C38">
-        <v>-0.01715491407173319</v>
+        <v>-0.03550831889738856</v>
       </c>
       <c r="D38">
-        <v>-0.00726351707486247</v>
+        <v>0.007861953063544567</v>
       </c>
       <c r="E38">
-        <v>0.02571504317943831</v>
+        <v>-0.01954314963237437</v>
       </c>
       <c r="F38">
-        <v>0.01384305951634644</v>
+        <v>-0.04383487579698439</v>
       </c>
       <c r="G38">
-        <v>0.0408867199666969</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02712161108615789</v>
+      </c>
+      <c r="H38">
+        <v>-0.009178408426164937</v>
+      </c>
+      <c r="I38">
+        <v>0.02024498664706736</v>
+      </c>
+      <c r="J38">
+        <v>-0.003089719553291455</v>
+      </c>
+      <c r="K38">
+        <v>0.04007482803834238</v>
+      </c>
+      <c r="L38">
+        <v>0.08342487718149222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.1057691614732623</v>
+        <v>0.1082996394332959</v>
       </c>
       <c r="C39">
-        <v>-0.05842445239407526</v>
+        <v>-0.08318451375166219</v>
       </c>
       <c r="D39">
-        <v>-0.003026837465483143</v>
+        <v>0.009372870549120414</v>
       </c>
       <c r="E39">
-        <v>0.04494184317612127</v>
+        <v>0.09146253008753499</v>
       </c>
       <c r="F39">
-        <v>0.02342298595601596</v>
+        <v>0.1519666463348954</v>
       </c>
       <c r="G39">
-        <v>0.128374770300914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1111468740186611</v>
+      </c>
+      <c r="H39">
+        <v>-0.07744650791053728</v>
+      </c>
+      <c r="I39">
+        <v>-0.007229247291039991</v>
+      </c>
+      <c r="J39">
+        <v>0.2168460115893736</v>
+      </c>
+      <c r="K39">
+        <v>-0.04358298891029352</v>
+      </c>
+      <c r="L39">
+        <v>-0.07482115608506217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.04968352619602192</v>
+        <v>0.03229031912871168</v>
       </c>
       <c r="C40">
-        <v>-0.02090798999905045</v>
+        <v>-0.05645156402164681</v>
       </c>
       <c r="D40">
-        <v>-0.03943424216294915</v>
+        <v>0.005127544015754456</v>
       </c>
       <c r="E40">
-        <v>0.104053877274946</v>
+        <v>-0.03745771803521658</v>
       </c>
       <c r="F40">
-        <v>0.02256918953531728</v>
+        <v>0.1044501729641588</v>
       </c>
       <c r="G40">
-        <v>0.1443943387592164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.005067521753183473</v>
+      </c>
+      <c r="H40">
+        <v>-0.09654462459403497</v>
+      </c>
+      <c r="I40">
+        <v>0.01737578255446066</v>
+      </c>
+      <c r="J40">
+        <v>-0.05384034779265873</v>
+      </c>
+      <c r="K40">
+        <v>0.03055736474463519</v>
+      </c>
+      <c r="L40">
+        <v>0.1282621156584619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.04690429158322194</v>
+        <v>0.03604704273725864</v>
       </c>
       <c r="C41">
-        <v>-0.03125672119264307</v>
+        <v>-0.0321983552310168</v>
       </c>
       <c r="D41">
-        <v>0.001034228657801139</v>
+        <v>0.01814976749547935</v>
       </c>
       <c r="E41">
-        <v>-0.004345008442279965</v>
+        <v>0.01622424148428856</v>
       </c>
       <c r="F41">
-        <v>0.02394907103390996</v>
+        <v>0.02051314824883885</v>
       </c>
       <c r="G41">
-        <v>0.0378751114705243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02248074261351242</v>
+      </c>
+      <c r="H41">
+        <v>0.004530321256093528</v>
+      </c>
+      <c r="I41">
+        <v>0.004778879434899283</v>
+      </c>
+      <c r="J41">
+        <v>0.01672591378277047</v>
+      </c>
+      <c r="K41">
+        <v>0.0546007849928789</v>
+      </c>
+      <c r="L41">
+        <v>0.01075416383283078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06685187888206971</v>
+        <v>0.05064965807017754</v>
       </c>
       <c r="C43">
-        <v>-0.02721878942355715</v>
+        <v>-0.0339660770971973</v>
       </c>
       <c r="D43">
-        <v>0.02019082969551742</v>
+        <v>0.01199882722886938</v>
       </c>
       <c r="E43">
-        <v>0.02381576037014789</v>
+        <v>-0.01378992560408211</v>
       </c>
       <c r="F43">
-        <v>0.01446878094100267</v>
+        <v>0.01118348915578645</v>
       </c>
       <c r="G43">
-        <v>0.005537133452792728</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.04700912439255721</v>
+      </c>
+      <c r="H43">
+        <v>0.02387139828891477</v>
+      </c>
+      <c r="I43">
+        <v>0.02560358507845793</v>
+      </c>
+      <c r="J43">
+        <v>0.04365201411212043</v>
+      </c>
+      <c r="K43">
+        <v>0.04275375478536218</v>
+      </c>
+      <c r="L43">
+        <v>-0.02046168921087243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.05343352581882125</v>
+        <v>0.1006141159422175</v>
       </c>
       <c r="C44">
-        <v>-0.02140721353488794</v>
+        <v>-0.07568033600843339</v>
       </c>
       <c r="D44">
-        <v>0.08929487653252453</v>
+        <v>0.03700057899340162</v>
       </c>
       <c r="E44">
-        <v>0.06674445544973059</v>
+        <v>-0.09337332723766033</v>
       </c>
       <c r="F44">
-        <v>0.02583244826853064</v>
+        <v>0.1763911539040983</v>
       </c>
       <c r="G44">
-        <v>0.116003811848767</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.003646157317716825</v>
+      </c>
+      <c r="H44">
+        <v>-0.05502032955455283</v>
+      </c>
+      <c r="I44">
+        <v>-0.03165871252509156</v>
+      </c>
+      <c r="J44">
+        <v>-0.006730336857328626</v>
+      </c>
+      <c r="K44">
+        <v>0.09530013188083331</v>
+      </c>
+      <c r="L44">
+        <v>0.07792245151300158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.04269115069799163</v>
+        <v>0.03609047408548037</v>
       </c>
       <c r="C46">
-        <v>-0.04520480654652857</v>
+        <v>-0.03302237183519971</v>
       </c>
       <c r="D46">
-        <v>0.01475842958129312</v>
+        <v>0.02478944676532994</v>
       </c>
       <c r="E46">
-        <v>0.05127882217279182</v>
+        <v>-0.04075849732110096</v>
       </c>
       <c r="F46">
-        <v>0.02454829985049979</v>
+        <v>0.03483606638482603</v>
       </c>
       <c r="G46">
-        <v>0.01547307488309934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01694866999752325</v>
+      </c>
+      <c r="H46">
+        <v>-0.04046461297554884</v>
+      </c>
+      <c r="I46">
+        <v>-0.03276734317957604</v>
+      </c>
+      <c r="J46">
+        <v>-0.03789839334282296</v>
+      </c>
+      <c r="K46">
+        <v>0.1210917992832788</v>
+      </c>
+      <c r="L46">
+        <v>-0.04420326159131117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.04616696520855018</v>
+        <v>0.04204096403215175</v>
       </c>
       <c r="C47">
-        <v>-0.009535081030253729</v>
+        <v>-0.02435919215151847</v>
       </c>
       <c r="D47">
-        <v>0.006129347855693842</v>
+        <v>0.005486837297571841</v>
       </c>
       <c r="E47">
-        <v>0.07257052211645874</v>
+        <v>-0.01955988207968994</v>
       </c>
       <c r="F47">
-        <v>0.00585628512288278</v>
+        <v>0.03680487488916864</v>
       </c>
       <c r="G47">
-        <v>-0.02222077759829611</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.002317621406577569</v>
+      </c>
+      <c r="H47">
+        <v>0.0130346399533054</v>
+      </c>
+      <c r="I47">
+        <v>0.02527319292497017</v>
+      </c>
+      <c r="J47">
+        <v>-0.02536510795579646</v>
+      </c>
+      <c r="K47">
+        <v>0.05316439381726516</v>
+      </c>
+      <c r="L47">
+        <v>0.005010237793514873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04603103911821511</v>
+        <v>0.04276360995877333</v>
       </c>
       <c r="C48">
-        <v>-0.004071655872674606</v>
+        <v>-0.01426382855795789</v>
       </c>
       <c r="D48">
-        <v>-0.004385308974830407</v>
+        <v>0.00754592221591511</v>
       </c>
       <c r="E48">
-        <v>0.03917234496685104</v>
+        <v>-0.00386420053105633</v>
       </c>
       <c r="F48">
-        <v>0.01989085884927792</v>
+        <v>0.06311558418061967</v>
       </c>
       <c r="G48">
-        <v>-0.00291571509926008</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002187819437500269</v>
+      </c>
+      <c r="H48">
+        <v>-0.0394948472662618</v>
+      </c>
+      <c r="I48">
+        <v>-0.002215924254417283</v>
+      </c>
+      <c r="J48">
+        <v>-0.01234450952283897</v>
+      </c>
+      <c r="K48">
+        <v>0.04756307657718267</v>
+      </c>
+      <c r="L48">
+        <v>-0.04170978197866854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.2357416494088376</v>
+        <v>0.2266170713721475</v>
       </c>
       <c r="C49">
-        <v>-0.1125310570716366</v>
+        <v>-0.05979251394835013</v>
       </c>
       <c r="D49">
-        <v>0.04841983159675056</v>
+        <v>0.08943369395385461</v>
       </c>
       <c r="E49">
-        <v>-0.04474252597850296</v>
+        <v>0.03536314912432323</v>
       </c>
       <c r="F49">
-        <v>-0.1631315409377306</v>
+        <v>-0.2261687656892272</v>
       </c>
       <c r="G49">
-        <v>-0.006248860642747337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.09012104303488135</v>
+      </c>
+      <c r="H49">
+        <v>-0.1992794024909366</v>
+      </c>
+      <c r="I49">
+        <v>-0.01186142059418512</v>
+      </c>
+      <c r="J49">
+        <v>0.09842682971467336</v>
+      </c>
+      <c r="K49">
+        <v>-0.1700296525700951</v>
+      </c>
+      <c r="L49">
+        <v>-0.02474410790228578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.05478276485802918</v>
+        <v>0.04470533049649057</v>
       </c>
       <c r="C50">
-        <v>-0.0194270030129302</v>
+        <v>-0.02986470069468325</v>
       </c>
       <c r="D50">
-        <v>-0.00898573085693343</v>
+        <v>0.001022363630208772</v>
       </c>
       <c r="E50">
-        <v>0.0201848639038918</v>
+        <v>0.0009915207583872784</v>
       </c>
       <c r="F50">
-        <v>0.04851693445592287</v>
+        <v>0.04233997080138033</v>
       </c>
       <c r="G50">
-        <v>-0.03328928545400059</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03642779296212195</v>
+      </c>
+      <c r="H50">
+        <v>0.02713397198755865</v>
+      </c>
+      <c r="I50">
+        <v>-0.01462451601420314</v>
+      </c>
+      <c r="J50">
+        <v>-0.02135993884557721</v>
+      </c>
+      <c r="K50">
+        <v>0.04235882029996962</v>
+      </c>
+      <c r="L50">
+        <v>-0.04078863082592987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.03039824380559956</v>
+        <v>0.02391332983013449</v>
       </c>
       <c r="C51">
-        <v>-0.01028912679745468</v>
+        <v>-0.0004166442637328745</v>
       </c>
       <c r="D51">
-        <v>0.007861163564054158</v>
+        <v>0.01641134920165781</v>
       </c>
       <c r="E51">
-        <v>-0.002911850518899005</v>
+        <v>-0.002501442043180209</v>
       </c>
       <c r="F51">
-        <v>0.000462127485085462</v>
+        <v>-0.02076518478277427</v>
       </c>
       <c r="G51">
-        <v>0.007925735297276599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.01069479521270689</v>
+      </c>
+      <c r="H51">
+        <v>0.006782031597281136</v>
+      </c>
+      <c r="I51">
+        <v>0.01042299101712547</v>
+      </c>
+      <c r="J51">
+        <v>0.06143062197694695</v>
+      </c>
+      <c r="K51">
+        <v>-0.03069661703102017</v>
+      </c>
+      <c r="L51">
+        <v>-0.02059489314498057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.05391587289805384</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.02576468153449136</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.001359981699868761</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.005040262199169057</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01607929022368049</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.0788473116744827</v>
+      </c>
+      <c r="H52">
+        <v>0.03416658839574199</v>
+      </c>
+      <c r="I52">
+        <v>-0.05098798161868186</v>
+      </c>
+      <c r="J52">
+        <v>-0.04388687102115127</v>
+      </c>
+      <c r="K52">
+        <v>-0.0383032040901596</v>
+      </c>
+      <c r="L52">
+        <v>-0.005371569857517274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1616839651130728</v>
+        <v>0.1602514676201477</v>
       </c>
       <c r="C53">
-        <v>-0.01447535312987586</v>
+        <v>-0.03903021860812474</v>
       </c>
       <c r="D53">
-        <v>0.01480255010370108</v>
+        <v>0.02341607936831824</v>
       </c>
       <c r="E53">
-        <v>-0.1052857282412591</v>
+        <v>0.0004481950373586313</v>
       </c>
       <c r="F53">
-        <v>0.2098850997920589</v>
+        <v>-0.07246191609739371</v>
       </c>
       <c r="G53">
-        <v>-0.03371796198053976</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.1498034285015124</v>
+      </c>
+      <c r="H53">
+        <v>0.1919920329645699</v>
+      </c>
+      <c r="I53">
+        <v>-0.1485111576614932</v>
+      </c>
+      <c r="J53">
+        <v>-0.09462036902713059</v>
+      </c>
+      <c r="K53">
+        <v>-0.04690450289557823</v>
+      </c>
+      <c r="L53">
+        <v>0.004185236647785143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.0479021949164385</v>
+        <v>0.05473408557988015</v>
       </c>
       <c r="C54">
-        <v>-0.007224740166675951</v>
+        <v>-0.04186767630368458</v>
       </c>
       <c r="D54">
-        <v>0.01781397829230021</v>
+        <v>0.01102108507120084</v>
       </c>
       <c r="E54">
-        <v>0.05385013417714609</v>
+        <v>-0.01699578929936664</v>
       </c>
       <c r="F54">
-        <v>0.02989694916402907</v>
+        <v>0.1276239728083098</v>
       </c>
       <c r="G54">
-        <v>0.04722593416298763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02192220652829632</v>
+      </c>
+      <c r="H54">
+        <v>0.02842596723248981</v>
+      </c>
+      <c r="I54">
+        <v>0.03842776596050405</v>
+      </c>
+      <c r="J54">
+        <v>-0.07073562450998251</v>
+      </c>
+      <c r="K54">
+        <v>0.139927557784209</v>
+      </c>
+      <c r="L54">
+        <v>-0.00347176913112318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09169665535041806</v>
+        <v>0.08947621462894811</v>
       </c>
       <c r="C55">
-        <v>-0.005319504116314564</v>
+        <v>-0.03686831406520502</v>
       </c>
       <c r="D55">
-        <v>0.01638626255967144</v>
+        <v>0.02111734216735546</v>
       </c>
       <c r="E55">
-        <v>-0.02658624901856051</v>
+        <v>0.01930617736718726</v>
       </c>
       <c r="F55">
-        <v>0.172785753449117</v>
+        <v>0.005161287491162832</v>
       </c>
       <c r="G55">
-        <v>-0.02653082369466975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.07718388812894901</v>
+      </c>
+      <c r="H55">
+        <v>0.1233089463063425</v>
+      </c>
+      <c r="I55">
+        <v>-0.1020017467168951</v>
+      </c>
+      <c r="J55">
+        <v>-0.03888272996220621</v>
+      </c>
+      <c r="K55">
+        <v>-0.000617788054746326</v>
+      </c>
+      <c r="L55">
+        <v>-0.002441465797505575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1608437809377576</v>
+        <v>0.1564143229794506</v>
       </c>
       <c r="C56">
-        <v>-0.001151866377031198</v>
+        <v>-0.05670130018537601</v>
       </c>
       <c r="D56">
-        <v>0.01165979203136192</v>
+        <v>0.04701414062412923</v>
       </c>
       <c r="E56">
-        <v>-0.09823542537504144</v>
+        <v>0.01625420749912054</v>
       </c>
       <c r="F56">
-        <v>0.2091457486322006</v>
+        <v>-0.04297963432532695</v>
       </c>
       <c r="G56">
-        <v>-0.07319126404832027</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1395770423608382</v>
+      </c>
+      <c r="H56">
+        <v>0.1666116494565679</v>
+      </c>
+      <c r="I56">
+        <v>-0.1503183276717452</v>
+      </c>
+      <c r="J56">
+        <v>-0.0634120410162219</v>
+      </c>
+      <c r="K56">
+        <v>-0.03730770062355322</v>
+      </c>
+      <c r="L56">
+        <v>0.03032430227876476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.02559568353043177</v>
+        <v>0.04757555875307825</v>
       </c>
       <c r="C58">
-        <v>-0.03458260573398475</v>
+        <v>-0.03986633002546709</v>
       </c>
       <c r="D58">
-        <v>-0.03115170747659389</v>
+        <v>-0.01007599159528902</v>
       </c>
       <c r="E58">
-        <v>0.3641254741492</v>
+        <v>-0.08270577471644258</v>
       </c>
       <c r="F58">
-        <v>-0.4298366546823715</v>
+        <v>0.01836857760248588</v>
       </c>
       <c r="G58">
-        <v>-0.08041063212069297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.0271957018828328</v>
+      </c>
+      <c r="H58">
+        <v>-0.1473250259895367</v>
+      </c>
+      <c r="I58">
+        <v>0.09553930883998764</v>
+      </c>
+      <c r="J58">
+        <v>0.1493730240814335</v>
+      </c>
+      <c r="K58">
+        <v>0.1379624873409503</v>
+      </c>
+      <c r="L58">
+        <v>-0.3422541257746285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1724939108913651</v>
+        <v>0.2078392870780469</v>
       </c>
       <c r="C59">
-        <v>0.409177373704731</v>
+        <v>0.3002505410853317</v>
       </c>
       <c r="D59">
-        <v>0.09139495395140508</v>
+        <v>0.01817322275787241</v>
       </c>
       <c r="E59">
-        <v>-0.02821440855394731</v>
+        <v>0.0432156973775888</v>
       </c>
       <c r="F59">
-        <v>0.03303470534334073</v>
+        <v>0.03347446845935096</v>
       </c>
       <c r="G59">
-        <v>0.04644757230127922</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.03427448892163593</v>
+      </c>
+      <c r="H59">
+        <v>0.1054926270254951</v>
+      </c>
+      <c r="I59">
+        <v>-0.0480659543886708</v>
+      </c>
+      <c r="J59">
+        <v>0.05562491737471396</v>
+      </c>
+      <c r="K59">
+        <v>-0.05725607563297113</v>
+      </c>
+      <c r="L59">
+        <v>0.09341140472713841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2632525784304388</v>
+        <v>0.2387851967912453</v>
       </c>
       <c r="C60">
-        <v>-0.07576545943021501</v>
+        <v>-0.09804626020537138</v>
       </c>
       <c r="D60">
-        <v>0.07987832688399432</v>
+        <v>0.1098760317081419</v>
       </c>
       <c r="E60">
-        <v>-0.04550434250261326</v>
+        <v>0.03778014037173059</v>
       </c>
       <c r="F60">
-        <v>-0.07370953308718839</v>
+        <v>-0.1376504625984027</v>
       </c>
       <c r="G60">
-        <v>-0.1043105083359191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.01822613173714525</v>
+      </c>
+      <c r="H60">
+        <v>-0.05087997974953827</v>
+      </c>
+      <c r="I60">
+        <v>0.06898938193275801</v>
+      </c>
+      <c r="J60">
+        <v>-0.0854830526795189</v>
+      </c>
+      <c r="K60">
+        <v>-0.2534328296752278</v>
+      </c>
+      <c r="L60">
+        <v>-0.07116669560554024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.0912355281145194</v>
+        <v>0.1009344140088288</v>
       </c>
       <c r="C61">
-        <v>-0.03150978288397708</v>
+        <v>-0.05018151241540867</v>
       </c>
       <c r="D61">
-        <v>0.001563487977787711</v>
+        <v>0.0243733433115483</v>
       </c>
       <c r="E61">
-        <v>0.001238532913634591</v>
+        <v>0.0487568791046961</v>
       </c>
       <c r="F61">
-        <v>0.01870089972735059</v>
+        <v>0.1309527733801422</v>
       </c>
       <c r="G61">
-        <v>0.04888942201262356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.08854138656206569</v>
+      </c>
+      <c r="H61">
+        <v>-0.01719400119444715</v>
+      </c>
+      <c r="I61">
+        <v>-0.02931891160291394</v>
+      </c>
+      <c r="J61">
+        <v>0.1149683929161194</v>
+      </c>
+      <c r="K61">
+        <v>0.02627561992209161</v>
+      </c>
+      <c r="L61">
+        <v>-0.04246940105517381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1460286065253028</v>
+        <v>0.1482210420585112</v>
       </c>
       <c r="C62">
-        <v>-0.02916898263715081</v>
+        <v>-0.05719765251456761</v>
       </c>
       <c r="D62">
-        <v>-0.02612560809201405</v>
+        <v>0.02030282333107954</v>
       </c>
       <c r="E62">
-        <v>-0.1587135723551187</v>
+        <v>0.0223141168760129</v>
       </c>
       <c r="F62">
-        <v>0.219744531552637</v>
+        <v>-0.05848396771533448</v>
       </c>
       <c r="G62">
-        <v>-0.01028946739692022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.1124624164774553</v>
+      </c>
+      <c r="H62">
+        <v>0.1475577492548533</v>
+      </c>
+      <c r="I62">
+        <v>-0.1700896992411783</v>
+      </c>
+      <c r="J62">
+        <v>-0.1234732747171189</v>
+      </c>
+      <c r="K62">
+        <v>-0.01082792766048745</v>
+      </c>
+      <c r="L62">
+        <v>0.03089560448418563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.04129635644117845</v>
+        <v>0.0445603046902914</v>
       </c>
       <c r="C63">
-        <v>-0.01903756938770819</v>
+        <v>-0.02460608969644563</v>
       </c>
       <c r="D63">
-        <v>-0.007480154896338392</v>
+        <v>-0.01525232591458331</v>
       </c>
       <c r="E63">
-        <v>0.003693503503442116</v>
+        <v>0.01083259679524948</v>
       </c>
       <c r="F63">
-        <v>0.01652542826002798</v>
+        <v>0.06319609387037609</v>
       </c>
       <c r="G63">
-        <v>0.01222141554732586</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.008386008040672903</v>
+      </c>
+      <c r="H63">
+        <v>-0.007610418919495784</v>
+      </c>
+      <c r="I63">
+        <v>0.0004720793749206047</v>
+      </c>
+      <c r="J63">
+        <v>0.002800738214760169</v>
+      </c>
+      <c r="K63">
+        <v>0.03868701636858691</v>
+      </c>
+      <c r="L63">
+        <v>-0.04714601422761053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.1068112397537425</v>
+        <v>0.09567295023902481</v>
       </c>
       <c r="C64">
-        <v>-0.02692229790050663</v>
+        <v>-0.04204033610352802</v>
       </c>
       <c r="D64">
-        <v>0.04406259532769821</v>
+        <v>0.05022190227162502</v>
       </c>
       <c r="E64">
-        <v>0.04080591214627937</v>
+        <v>-0.01763106538667334</v>
       </c>
       <c r="F64">
-        <v>-0.008889696353097684</v>
+        <v>0.08252496747084952</v>
       </c>
       <c r="G64">
-        <v>0.06073776235974849</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.03257970212766999</v>
+      </c>
+      <c r="H64">
+        <v>-0.06327645224671224</v>
+      </c>
+      <c r="I64">
+        <v>0.09349571016255305</v>
+      </c>
+      <c r="J64">
+        <v>0.01780756274094508</v>
+      </c>
+      <c r="K64">
+        <v>-0.01495624603909178</v>
+      </c>
+      <c r="L64">
+        <v>0.006003011705656871</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1216261512374577</v>
+        <v>0.1238927017288457</v>
       </c>
       <c r="C65">
-        <v>-0.04637707682165826</v>
+        <v>-0.04928008167835742</v>
       </c>
       <c r="D65">
-        <v>0.02789931847842762</v>
+        <v>-0.01558094060805293</v>
       </c>
       <c r="E65">
-        <v>0.06721359318662692</v>
+        <v>0.01696041330461513</v>
       </c>
       <c r="F65">
-        <v>-0.2065529210110227</v>
+        <v>-0.01967822275165507</v>
       </c>
       <c r="G65">
-        <v>-0.2221051021422857</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.06140733807932588</v>
+      </c>
+      <c r="H65">
+        <v>0.02398067763373329</v>
+      </c>
+      <c r="I65">
+        <v>0.3476098288806471</v>
+      </c>
+      <c r="J65">
+        <v>-0.4792352817875206</v>
+      </c>
+      <c r="K65">
+        <v>-0.1401189345927343</v>
+      </c>
+      <c r="L65">
+        <v>-0.3650347145861404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1610506417847413</v>
+        <v>0.1386366685831697</v>
       </c>
       <c r="C66">
-        <v>-0.07343970455236565</v>
+        <v>-0.1127425433744815</v>
       </c>
       <c r="D66">
-        <v>-0.0210874677506288</v>
+        <v>0.01226520644469539</v>
       </c>
       <c r="E66">
-        <v>-0.01104784701882014</v>
+        <v>0.1092268919075017</v>
       </c>
       <c r="F66">
-        <v>0.0435883598658111</v>
+        <v>0.1454256738908185</v>
       </c>
       <c r="G66">
-        <v>0.2679508639103668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.139627786058056</v>
+      </c>
+      <c r="H66">
+        <v>-0.1070173015346324</v>
+      </c>
+      <c r="I66">
+        <v>-0.0577091207082035</v>
+      </c>
+      <c r="J66">
+        <v>0.2086894907065157</v>
+      </c>
+      <c r="K66">
+        <v>-0.1088711723598185</v>
+      </c>
+      <c r="L66">
+        <v>-0.02097901165021511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09561280122388516</v>
+        <v>0.06884323164112276</v>
       </c>
       <c r="C67">
-        <v>-0.0320698296653748</v>
+        <v>-0.0421233734056812</v>
       </c>
       <c r="D67">
-        <v>0.01321558770787238</v>
+        <v>0.005294383351869355</v>
       </c>
       <c r="E67">
-        <v>0.006073725964910585</v>
+        <v>-0.01995472563233442</v>
       </c>
       <c r="F67">
-        <v>0.01414681682738016</v>
+        <v>-0.02168126739479698</v>
       </c>
       <c r="G67">
-        <v>0.04050372295348482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01724433299701922</v>
+      </c>
+      <c r="H67">
+        <v>0.007934433838476425</v>
+      </c>
+      <c r="I67">
+        <v>0.05506694833943657</v>
+      </c>
+      <c r="J67">
+        <v>0.04391063966746643</v>
+      </c>
+      <c r="K67">
+        <v>-0.01738899989554261</v>
+      </c>
+      <c r="L67">
+        <v>0.1232514050817545</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.05678534924858622</v>
+        <v>0.1092827747373131</v>
       </c>
       <c r="C68">
-        <v>0.2926457537526078</v>
+        <v>0.2778019687710442</v>
       </c>
       <c r="D68">
-        <v>0.02971323998676915</v>
+        <v>-0.0267657051680643</v>
       </c>
       <c r="E68">
-        <v>0.005387109092082016</v>
+        <v>0.01297554944992289</v>
       </c>
       <c r="F68">
-        <v>0.003528832656942951</v>
+        <v>0.04200486741128104</v>
       </c>
       <c r="G68">
-        <v>-0.04270626031074186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01369440742894159</v>
+      </c>
+      <c r="H68">
+        <v>0.01955498611664841</v>
+      </c>
+      <c r="I68">
+        <v>0.0171832931147737</v>
+      </c>
+      <c r="J68">
+        <v>-0.02886592263058828</v>
+      </c>
+      <c r="K68">
+        <v>0.01044537565716027</v>
+      </c>
+      <c r="L68">
+        <v>-0.054704155735715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.0443880224906474</v>
+        <v>0.04145859243132573</v>
       </c>
       <c r="C69">
-        <v>-0.01679319469697225</v>
+        <v>-0.006608187439945036</v>
       </c>
       <c r="D69">
-        <v>0.006781751056741175</v>
+        <v>0.01146283595640326</v>
       </c>
       <c r="E69">
-        <v>0.01119348274114934</v>
+        <v>-0.00487939456010802</v>
       </c>
       <c r="F69">
-        <v>0.02302523730958326</v>
+        <v>0.01370712351024245</v>
       </c>
       <c r="G69">
-        <v>0.02962303499721909</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03835261174398523</v>
+      </c>
+      <c r="H69">
+        <v>0.02276667976643676</v>
+      </c>
+      <c r="I69">
+        <v>0.01410904278838616</v>
+      </c>
+      <c r="J69">
+        <v>-0.0005537252741868327</v>
+      </c>
+      <c r="K69">
+        <v>0.02224439267111811</v>
+      </c>
+      <c r="L69">
+        <v>0.001104047835355472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.07337339606189855</v>
+        <v>0.04920261482284721</v>
       </c>
       <c r="C70">
-        <v>-0.007109153451890405</v>
+        <v>-0.01459698767170147</v>
       </c>
       <c r="D70">
-        <v>0.03962906103305637</v>
+        <v>0.03481782477403391</v>
       </c>
       <c r="E70">
-        <v>-0.01136995676551971</v>
+        <v>0.02409977958846801</v>
       </c>
       <c r="F70">
-        <v>-0.09039830319580679</v>
+        <v>0.01861178118708389</v>
       </c>
       <c r="G70">
-        <v>-0.03601778783006791</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.01435377228810567</v>
+      </c>
+      <c r="H70">
+        <v>-0.01690416342586438</v>
+      </c>
+      <c r="I70">
+        <v>0.1339550576239839</v>
+      </c>
+      <c r="J70">
+        <v>-0.09073758108023589</v>
+      </c>
+      <c r="K70">
+        <v>0.2946858111333194</v>
+      </c>
+      <c r="L70">
+        <v>0.147827042952292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.06547446557290659</v>
+        <v>0.1243541503947343</v>
       </c>
       <c r="C71">
-        <v>0.2898661244623926</v>
+        <v>0.2878971224875304</v>
       </c>
       <c r="D71">
-        <v>0.05995619559108101</v>
+        <v>0.004300179971701614</v>
       </c>
       <c r="E71">
-        <v>0.001576709981474521</v>
+        <v>0.001115473542984407</v>
       </c>
       <c r="F71">
-        <v>-0.01184956238460854</v>
+        <v>0.04940463692531961</v>
       </c>
       <c r="G71">
-        <v>-0.01514733181760511</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04067509665330479</v>
+      </c>
+      <c r="H71">
+        <v>-0.008822239639848321</v>
+      </c>
+      <c r="I71">
+        <v>0.01958327371516027</v>
+      </c>
+      <c r="J71">
+        <v>0.006150845361663185</v>
+      </c>
+      <c r="K71">
+        <v>-0.008168291950928181</v>
+      </c>
+      <c r="L71">
+        <v>-0.03435172106022786</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1615960278256731</v>
+        <v>0.1490239423259394</v>
       </c>
       <c r="C72">
-        <v>0.02203073873603357</v>
+        <v>-0.02402389517545077</v>
       </c>
       <c r="D72">
-        <v>-0.2390616377165277</v>
+        <v>-0.0940276840626052</v>
       </c>
       <c r="E72">
-        <v>-0.03028059687525329</v>
+        <v>0.03055754565332272</v>
       </c>
       <c r="F72">
-        <v>0.04993476085619063</v>
+        <v>0.0004039027328617476</v>
       </c>
       <c r="G72">
-        <v>0.06466009492748327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.06808157904793283</v>
+      </c>
+      <c r="H72">
+        <v>0.03891080482419561</v>
+      </c>
+      <c r="I72">
+        <v>-0.02345084166476493</v>
+      </c>
+      <c r="J72">
+        <v>-0.1146155242660895</v>
+      </c>
+      <c r="K72">
+        <v>-0.1142332917149206</v>
+      </c>
+      <c r="L72">
+        <v>0.004956787352215431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2929200129855403</v>
+        <v>0.2391394989561698</v>
       </c>
       <c r="C73">
-        <v>-0.1762779078901532</v>
+        <v>-0.1208904051010219</v>
       </c>
       <c r="D73">
-        <v>0.085111027733759</v>
+        <v>0.1659330050229598</v>
       </c>
       <c r="E73">
-        <v>-0.09210527663770329</v>
+        <v>0.1045534355973374</v>
       </c>
       <c r="F73">
-        <v>-0.3071025956194505</v>
+        <v>-0.4370294253311484</v>
       </c>
       <c r="G73">
-        <v>-0.1088204289486098</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.02876434570424331</v>
+      </c>
+      <c r="H73">
+        <v>-0.2460275156076046</v>
+      </c>
+      <c r="I73">
+        <v>0.1432578840368262</v>
+      </c>
+      <c r="J73">
+        <v>0.2768507741234165</v>
+      </c>
+      <c r="K73">
+        <v>-0.1979997990521854</v>
+      </c>
+      <c r="L73">
+        <v>-0.06835791260037979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.09418283587203408</v>
+        <v>0.1086041184906883</v>
       </c>
       <c r="C74">
-        <v>-0.03464545312821891</v>
+        <v>-0.0707125142201239</v>
       </c>
       <c r="D74">
-        <v>0.003259390020504919</v>
+        <v>0.009205289766068953</v>
       </c>
       <c r="E74">
-        <v>-0.03292090563007195</v>
+        <v>0.006963759877462895</v>
       </c>
       <c r="F74">
-        <v>0.08770171231589913</v>
+        <v>-0.0500110341849228</v>
       </c>
       <c r="G74">
-        <v>-0.04599334971633816</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.1226174732267047</v>
+      </c>
+      <c r="H74">
+        <v>0.08447088921622109</v>
+      </c>
+      <c r="I74">
+        <v>-0.07192334841857607</v>
+      </c>
+      <c r="J74">
+        <v>-0.01998104049229039</v>
+      </c>
+      <c r="K74">
+        <v>-0.007005580121494239</v>
+      </c>
+      <c r="L74">
+        <v>-0.003106841592864401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.09591186471280999</v>
+        <v>0.1014768173835205</v>
       </c>
       <c r="C75">
-        <v>-0.01128697300790378</v>
+        <v>-0.04907340799677583</v>
       </c>
       <c r="D75">
-        <v>-0.009455021744880327</v>
+        <v>0.002851762721072165</v>
       </c>
       <c r="E75">
-        <v>-0.03250040999479144</v>
+        <v>0.005032075846468888</v>
       </c>
       <c r="F75">
-        <v>0.1106808730393312</v>
+        <v>-0.03604972016124815</v>
       </c>
       <c r="G75">
-        <v>-0.04997575900459091</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.04436810020420711</v>
+      </c>
+      <c r="H75">
+        <v>0.1145478609701427</v>
+      </c>
+      <c r="I75">
+        <v>-0.08303549166767253</v>
+      </c>
+      <c r="J75">
+        <v>-0.03898480399498381</v>
+      </c>
+      <c r="K75">
+        <v>-0.01346356738186866</v>
+      </c>
+      <c r="L75">
+        <v>0.008108794850301422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1323892609911</v>
+        <v>0.06780005350178253</v>
       </c>
       <c r="C76">
-        <v>-0.03777730958790548</v>
+        <v>-0.0391769162259317</v>
       </c>
       <c r="D76">
-        <v>0.00941657571306353</v>
+        <v>0.02988725868822792</v>
       </c>
       <c r="E76">
-        <v>-0.03770367855533214</v>
+        <v>-0.002742410031351259</v>
       </c>
       <c r="F76">
-        <v>0.2088482817941927</v>
+        <v>-0.06561486302031624</v>
       </c>
       <c r="G76">
-        <v>-0.09369901063922438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05346429948446346</v>
+      </c>
+      <c r="H76">
+        <v>0.1504470595465554</v>
+      </c>
+      <c r="I76">
+        <v>-0.08740298301067906</v>
+      </c>
+      <c r="J76">
+        <v>0.01011429436268894</v>
+      </c>
+      <c r="K76">
+        <v>0.03079744419413976</v>
+      </c>
+      <c r="L76">
+        <v>0.004159066320600925</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.08031585117824694</v>
+        <v>0.07240752746114072</v>
       </c>
       <c r="C77">
-        <v>-0.01254467776661531</v>
+        <v>-0.03307190787196981</v>
       </c>
       <c r="D77">
-        <v>0.03240013213420562</v>
+        <v>0.03672888628290225</v>
       </c>
       <c r="E77">
-        <v>0.1277102485657897</v>
+        <v>0.007238347005309629</v>
       </c>
       <c r="F77">
-        <v>-0.1382332017564793</v>
+        <v>0.2865793054339728</v>
       </c>
       <c r="G77">
-        <v>0.5983060673758006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03409341045724623</v>
+      </c>
+      <c r="H77">
+        <v>-0.05523564521618238</v>
+      </c>
+      <c r="I77">
+        <v>0.2444499818005931</v>
+      </c>
+      <c r="J77">
+        <v>-0.01743270011247737</v>
+      </c>
+      <c r="K77">
+        <v>-0.416425418387431</v>
+      </c>
+      <c r="L77">
+        <v>0.5490012403227837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1957231799228609</v>
+        <v>0.1588076567902437</v>
       </c>
       <c r="C78">
-        <v>-0.06589095333224472</v>
+        <v>-0.1148646002480344</v>
       </c>
       <c r="D78">
-        <v>0.04576251694156226</v>
+        <v>-0.04425799940664298</v>
       </c>
       <c r="E78">
-        <v>0.2121193582659504</v>
+        <v>-0.1797940711142659</v>
       </c>
       <c r="F78">
-        <v>0.04757595754956483</v>
+        <v>0.1862855732634068</v>
       </c>
       <c r="G78">
-        <v>0.05839372089158878</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.7208832644629021</v>
+      </c>
+      <c r="H78">
+        <v>0.4285004051698473</v>
+      </c>
+      <c r="I78">
+        <v>-0.08755542298926419</v>
+      </c>
+      <c r="J78">
+        <v>0.2254776793533545</v>
+      </c>
+      <c r="K78">
+        <v>-0.1494435622569009</v>
+      </c>
+      <c r="L78">
+        <v>-0.1185622571533999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1354212809805171</v>
+        <v>0.135312101846697</v>
       </c>
       <c r="C79">
-        <v>-0.01808556089033216</v>
+        <v>-0.05678812491233781</v>
       </c>
       <c r="D79">
-        <v>-0.007145092235555134</v>
+        <v>0.01850065435896484</v>
       </c>
       <c r="E79">
-        <v>-0.04661304967454657</v>
+        <v>-0.004312734689962741</v>
       </c>
       <c r="F79">
-        <v>0.1609917541596507</v>
+        <v>-0.006120192708228467</v>
       </c>
       <c r="G79">
-        <v>-0.01510895903899691</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.1136225121260242</v>
+      </c>
+      <c r="H79">
+        <v>0.1111823106978576</v>
+      </c>
+      <c r="I79">
+        <v>-0.1139386980793037</v>
+      </c>
+      <c r="J79">
+        <v>-0.07042755204136494</v>
+      </c>
+      <c r="K79">
+        <v>-0.01834569932369953</v>
+      </c>
+      <c r="L79">
+        <v>0.005761748822387502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03747396673173121</v>
+        <v>0.06076326234048443</v>
       </c>
       <c r="C80">
-        <v>-0.01481841704081052</v>
+        <v>-0.03047606706945005</v>
       </c>
       <c r="D80">
-        <v>0.008948942122034485</v>
+        <v>0.02700065628718318</v>
       </c>
       <c r="E80">
-        <v>-0.04612384120226178</v>
+        <v>0.06463934181124904</v>
       </c>
       <c r="F80">
-        <v>-0.03379634653719777</v>
+        <v>0.02885750030963801</v>
       </c>
       <c r="G80">
-        <v>0.01028324899623394</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.006074505939125201</v>
+      </c>
+      <c r="H80">
+        <v>0.05816258638375932</v>
+      </c>
+      <c r="I80">
+        <v>0.08187719515110815</v>
+      </c>
+      <c r="J80">
+        <v>-0.01355166824556213</v>
+      </c>
+      <c r="K80">
+        <v>0.1747351888401213</v>
+      </c>
+      <c r="L80">
+        <v>-0.1023097991263291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1068306913637668</v>
+        <v>0.1264048081552673</v>
       </c>
       <c r="C81">
-        <v>-0.02075317277192106</v>
+        <v>-0.06048318989613134</v>
       </c>
       <c r="D81">
-        <v>0.01193231262323738</v>
+        <v>0.02591607325669759</v>
       </c>
       <c r="E81">
-        <v>-0.05268349344332489</v>
+        <v>-0.005555439911524975</v>
       </c>
       <c r="F81">
-        <v>0.1283398078899912</v>
+        <v>0.001437410526214824</v>
       </c>
       <c r="G81">
-        <v>-0.02714741862062749</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07344411560570936</v>
+      </c>
+      <c r="H81">
+        <v>0.07306241269433857</v>
+      </c>
+      <c r="I81">
+        <v>-0.1091910471657006</v>
+      </c>
+      <c r="J81">
+        <v>-0.04117556094524298</v>
+      </c>
+      <c r="K81">
+        <v>-0.002232418541303869</v>
+      </c>
+      <c r="L81">
+        <v>0.01244739033806826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1091964928950984</v>
+        <v>0.1336319344961938</v>
       </c>
       <c r="C82">
-        <v>-0.02583078116829636</v>
+        <v>-0.04481215095212242</v>
       </c>
       <c r="D82">
-        <v>0.05940322811288798</v>
+        <v>0.04438900319089633</v>
       </c>
       <c r="E82">
-        <v>-0.09200823636395271</v>
+        <v>0.01132931679048033</v>
       </c>
       <c r="F82">
-        <v>0.2220937248831542</v>
+        <v>-0.04853113316658081</v>
       </c>
       <c r="G82">
-        <v>-0.008857726481049438</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.159851993620522</v>
+      </c>
+      <c r="H82">
+        <v>0.1474930732568147</v>
+      </c>
+      <c r="I82">
+        <v>-0.1889263241657732</v>
+      </c>
+      <c r="J82">
+        <v>-0.0396446343289182</v>
+      </c>
+      <c r="K82">
+        <v>0.07007776768844833</v>
+      </c>
+      <c r="L82">
+        <v>0.0651877723535462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.09743283120990735</v>
+        <v>0.09368705184813646</v>
       </c>
       <c r="C83">
-        <v>-0.06122409261535843</v>
+        <v>-0.1134507372075057</v>
       </c>
       <c r="D83">
-        <v>0.05746385664776264</v>
+        <v>0.02383289699693184</v>
       </c>
       <c r="E83">
-        <v>0.008453944133341461</v>
+        <v>0.01079360401231138</v>
       </c>
       <c r="F83">
-        <v>-0.06593753740919595</v>
+        <v>0.0847057716771116</v>
       </c>
       <c r="G83">
-        <v>0.0523728910038197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.02681625470607951</v>
+      </c>
+      <c r="H83">
+        <v>0.06252726160791872</v>
+      </c>
+      <c r="I83">
+        <v>0.149900348993906</v>
+      </c>
+      <c r="J83">
+        <v>0.03188195862493216</v>
+      </c>
+      <c r="K83">
+        <v>0.1704533488578063</v>
+      </c>
+      <c r="L83">
+        <v>0.09108056797306104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05797134255915219</v>
+        <v>0.05262803354833869</v>
       </c>
       <c r="C84">
-        <v>-0.04101518412338327</v>
+        <v>0.03416958663087815</v>
       </c>
       <c r="D84">
-        <v>-0.05232332715628076</v>
+        <v>0.005310868759911065</v>
       </c>
       <c r="E84">
-        <v>0.007807396054669771</v>
+        <v>0.01652315004279883</v>
       </c>
       <c r="F84">
-        <v>0.04571811787126034</v>
+        <v>-0.01291070412520864</v>
       </c>
       <c r="G84">
-        <v>-0.1168309309443306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.1727995719969758</v>
+      </c>
+      <c r="H84">
+        <v>-0.2192420614501372</v>
+      </c>
+      <c r="I84">
+        <v>-0.2384258843669879</v>
+      </c>
+      <c r="J84">
+        <v>0.1491234648931468</v>
+      </c>
+      <c r="K84">
+        <v>0.1502833229283143</v>
+      </c>
+      <c r="L84">
+        <v>-0.1187488363715806</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.09973121578518673</v>
+        <v>0.1141467104691246</v>
       </c>
       <c r="C85">
-        <v>-0.03026929625250062</v>
+        <v>-0.04590437770778433</v>
       </c>
       <c r="D85">
-        <v>0.02438144743345464</v>
+        <v>0.0478242374796445</v>
       </c>
       <c r="E85">
-        <v>-0.04803250046560449</v>
+        <v>-0.0009080669020265864</v>
       </c>
       <c r="F85">
-        <v>0.1870892967187746</v>
+        <v>-0.003515625846783396</v>
       </c>
       <c r="G85">
-        <v>0.004049211658963819</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.103668444209371</v>
+      </c>
+      <c r="H85">
+        <v>0.1155423210895025</v>
+      </c>
+      <c r="I85">
+        <v>-0.1171319638806398</v>
+      </c>
+      <c r="J85">
+        <v>-0.07184574395415157</v>
+      </c>
+      <c r="K85">
+        <v>-0.04877175540224311</v>
+      </c>
+      <c r="L85">
+        <v>0.0141552891825211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06118360182133212</v>
+        <v>0.08077467471862779</v>
       </c>
       <c r="C86">
-        <v>-0.03150791091100005</v>
+        <v>-0.02548634630814093</v>
       </c>
       <c r="D86">
-        <v>0.0426045291014753</v>
+        <v>0.1082596164939494</v>
       </c>
       <c r="E86">
-        <v>0.04665721567257454</v>
+        <v>-0.04241660246587959</v>
       </c>
       <c r="F86">
-        <v>-0.02188694588463506</v>
+        <v>0.04229580582123559</v>
       </c>
       <c r="G86">
-        <v>0.05027813386563447</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.2951082312177132</v>
+      </c>
+      <c r="H86">
+        <v>-0.4730143786838688</v>
+      </c>
+      <c r="I86">
+        <v>-0.501783825427364</v>
+      </c>
+      <c r="J86">
+        <v>-0.4232713728299133</v>
+      </c>
+      <c r="K86">
+        <v>0.007331692985531556</v>
+      </c>
+      <c r="L86">
+        <v>0.05860235873359216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.100010554696381</v>
+        <v>0.115701435691272</v>
       </c>
       <c r="C87">
-        <v>-0.0538564390229466</v>
+        <v>-0.09856366786791128</v>
       </c>
       <c r="D87">
-        <v>0.01589797017899214</v>
+        <v>0.03520164011233904</v>
       </c>
       <c r="E87">
-        <v>0.07847652447478759</v>
+        <v>-0.03005488165120252</v>
       </c>
       <c r="F87">
-        <v>0.009339335213817976</v>
+        <v>0.1349228719206598</v>
       </c>
       <c r="G87">
-        <v>0.1205881815245639</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01977533162617643</v>
+      </c>
+      <c r="H87">
+        <v>-0.07903147821014507</v>
+      </c>
+      <c r="I87">
+        <v>0.09348448101422323</v>
+      </c>
+      <c r="J87">
+        <v>-0.1144260270136954</v>
+      </c>
+      <c r="K87">
+        <v>-0.009520514446437535</v>
+      </c>
+      <c r="L87">
+        <v>0.2814371369263128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.06364558282871688</v>
+        <v>0.05522850078219434</v>
       </c>
       <c r="C88">
-        <v>-0.03422249595575631</v>
+        <v>-0.04844913095240486</v>
       </c>
       <c r="D88">
-        <v>0.02346269855345968</v>
+        <v>0.03114211811069224</v>
       </c>
       <c r="E88">
-        <v>0.009814323015630701</v>
+        <v>0.02724811264929399</v>
       </c>
       <c r="F88">
-        <v>0.001043076126801582</v>
+        <v>0.03059810718952552</v>
       </c>
       <c r="G88">
-        <v>0.04653294108836245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04501620524517089</v>
+      </c>
+      <c r="H88">
+        <v>-0.008228586837502985</v>
+      </c>
+      <c r="I88">
+        <v>0.02346122699868835</v>
+      </c>
+      <c r="J88">
+        <v>0.03682939504678009</v>
+      </c>
+      <c r="K88">
+        <v>0.03918619454208694</v>
+      </c>
+      <c r="L88">
+        <v>-0.05709405676097584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1189796563151871</v>
+        <v>0.1828721482881644</v>
       </c>
       <c r="C89">
-        <v>0.3571540017949043</v>
+        <v>0.3703270280682707</v>
       </c>
       <c r="D89">
-        <v>0.1097241864805921</v>
+        <v>0.0240421061141228</v>
       </c>
       <c r="E89">
-        <v>0.06202457276851554</v>
+        <v>-0.05229019052684548</v>
       </c>
       <c r="F89">
-        <v>-0.05515723651184023</v>
+        <v>0.02941903330490829</v>
       </c>
       <c r="G89">
-        <v>0.02218330324948091</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03392205407241911</v>
+      </c>
+      <c r="H89">
+        <v>-0.01507399043970035</v>
+      </c>
+      <c r="I89">
+        <v>0.06933939741360862</v>
+      </c>
+      <c r="J89">
+        <v>0.03886016832586431</v>
+      </c>
+      <c r="K89">
+        <v>0.05904497742762523</v>
+      </c>
+      <c r="L89">
+        <v>0.01112883192127907</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.09338914854524814</v>
+        <v>0.1411827076965127</v>
       </c>
       <c r="C90">
-        <v>0.2814463816537742</v>
+        <v>0.2727906146367984</v>
       </c>
       <c r="D90">
-        <v>0.05202963192699237</v>
+        <v>0.00814404838080165</v>
       </c>
       <c r="E90">
-        <v>0.06182417838252842</v>
+        <v>-0.002421596656671381</v>
       </c>
       <c r="F90">
-        <v>-0.03339684985311678</v>
+        <v>0.04173197162867101</v>
       </c>
       <c r="G90">
-        <v>0.08463779922859718</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02147597684212514</v>
+      </c>
+      <c r="H90">
+        <v>-0.06225702969721963</v>
+      </c>
+      <c r="I90">
+        <v>0.02006886230400311</v>
+      </c>
+      <c r="J90">
+        <v>0.03515402809842526</v>
+      </c>
+      <c r="K90">
+        <v>-0.03243257659384779</v>
+      </c>
+      <c r="L90">
+        <v>-0.0163202334637627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.08154398253517507</v>
+        <v>0.08075955784254846</v>
       </c>
       <c r="C91">
-        <v>-0.02101762165088622</v>
+        <v>-0.04340033139841335</v>
       </c>
       <c r="D91">
-        <v>0.004722082522151343</v>
+        <v>0.02923198370836129</v>
       </c>
       <c r="E91">
-        <v>-0.02461677685629181</v>
+        <v>-0.006112644863714058</v>
       </c>
       <c r="F91">
-        <v>0.06476279950336492</v>
+        <v>-0.02660276053774672</v>
       </c>
       <c r="G91">
-        <v>-0.06382824846414245</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.06073983727599033</v>
+      </c>
+      <c r="H91">
+        <v>0.0682486755870608</v>
+      </c>
+      <c r="I91">
+        <v>-0.07086478255896718</v>
+      </c>
+      <c r="J91">
+        <v>-0.02055687193066139</v>
+      </c>
+      <c r="K91">
+        <v>0.001795385135078975</v>
+      </c>
+      <c r="L91">
+        <v>-0.001590675293124301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.09361668047208417</v>
+        <v>0.1551402847562574</v>
       </c>
       <c r="C92">
-        <v>0.334541019895503</v>
+        <v>0.3269027333212172</v>
       </c>
       <c r="D92">
-        <v>0.07149968009006888</v>
+        <v>-0.004499334206423934</v>
       </c>
       <c r="E92">
-        <v>0.04446977929355367</v>
+        <v>-0.04189696978071403</v>
       </c>
       <c r="F92">
-        <v>-0.01774598769951697</v>
+        <v>0.05200777850161227</v>
       </c>
       <c r="G92">
-        <v>-0.09085309017425842</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01127886474076163</v>
+      </c>
+      <c r="H92">
+        <v>0.04075166148294595</v>
+      </c>
+      <c r="I92">
+        <v>-0.007708341550051218</v>
+      </c>
+      <c r="J92">
+        <v>0.04684786019690068</v>
+      </c>
+      <c r="K92">
+        <v>0.03860482358279539</v>
+      </c>
+      <c r="L92">
+        <v>-0.04321457913652991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.1057047934259622</v>
+        <v>0.1476564726200449</v>
       </c>
       <c r="C93">
-        <v>0.2817145909983527</v>
+        <v>0.3057195836611348</v>
       </c>
       <c r="D93">
-        <v>0.05418217463125669</v>
+        <v>0.01966130925914937</v>
       </c>
       <c r="E93">
-        <v>0.01779202817846922</v>
+        <v>0.02357380340541224</v>
       </c>
       <c r="F93">
-        <v>-0.01489624806663395</v>
+        <v>0.01336444537539469</v>
       </c>
       <c r="G93">
-        <v>-0.00274407644179214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.01893843717140646</v>
+      </c>
+      <c r="H93">
+        <v>-0.05105556979018202</v>
+      </c>
+      <c r="I93">
+        <v>-0.01100396098652452</v>
+      </c>
+      <c r="J93">
+        <v>-0.03082269178416257</v>
+      </c>
+      <c r="K93">
+        <v>0.01500856200525177</v>
+      </c>
+      <c r="L93">
+        <v>-0.009781464147648109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.08848820951911149</v>
+        <v>0.1194851325158612</v>
       </c>
       <c r="C94">
-        <v>-0.04467554505497446</v>
+        <v>-0.0613162771607373</v>
       </c>
       <c r="D94">
-        <v>-0.006156030587199707</v>
+        <v>0.01914475714834946</v>
       </c>
       <c r="E94">
-        <v>-0.03446940876183296</v>
+        <v>-0.01211453020822106</v>
       </c>
       <c r="F94">
-        <v>0.1202065055929837</v>
+        <v>-0.0463930747037962</v>
       </c>
       <c r="G94">
-        <v>-0.05473685826791319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.08581028768880078</v>
+      </c>
+      <c r="H94">
+        <v>0.0900291935120263</v>
+      </c>
+      <c r="I94">
+        <v>-0.0952860554782701</v>
+      </c>
+      <c r="J94">
+        <v>-0.006820411110001553</v>
+      </c>
+      <c r="K94">
+        <v>-0.005138058129065216</v>
+      </c>
+      <c r="L94">
+        <v>-0.03879124309302272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1290070198686527</v>
+        <v>0.1196807714672291</v>
       </c>
       <c r="C95">
-        <v>-0.06701221475214145</v>
+        <v>-0.06659590725893667</v>
       </c>
       <c r="D95">
-        <v>0.0661192200773979</v>
+        <v>0.04386201819122971</v>
       </c>
       <c r="E95">
-        <v>0.0406471821050854</v>
+        <v>-0.02162280874171889</v>
       </c>
       <c r="F95">
-        <v>-0.05176468302626018</v>
+        <v>0.06267896237914108</v>
       </c>
       <c r="G95">
-        <v>0.08197619602379093</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1338802514064576</v>
+      </c>
+      <c r="H95">
+        <v>-0.1783551338761453</v>
+      </c>
+      <c r="I95">
+        <v>0.03850788225566781</v>
+      </c>
+      <c r="J95">
+        <v>-0.08754495230789953</v>
+      </c>
+      <c r="K95">
+        <v>0.08963525763230591</v>
+      </c>
+      <c r="L95">
+        <v>-0.00628896152473271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.004447171015694783</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.005643996230150272</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0009982939471562971</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0004009190356312142</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.007838174695723975</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.01801240039212978</v>
+      </c>
+      <c r="H96">
+        <v>0.01342438067964417</v>
+      </c>
+      <c r="I96">
+        <v>0.01305908034748439</v>
+      </c>
+      <c r="J96">
+        <v>0.002544662977004973</v>
+      </c>
+      <c r="K96">
+        <v>-0.01111200846304102</v>
+      </c>
+      <c r="L96">
+        <v>0.007750668281084024</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2227774358417567</v>
+        <v>0.1926312861821812</v>
       </c>
       <c r="C97">
-        <v>0.134834073528076</v>
+        <v>-0.06481853329809439</v>
       </c>
       <c r="D97">
-        <v>-0.8974998502688125</v>
+        <v>-0.9285531965452898</v>
       </c>
       <c r="E97">
-        <v>-0.02952192229733541</v>
+        <v>0.1713753691348575</v>
       </c>
       <c r="F97">
-        <v>-0.1040515299179187</v>
+        <v>-0.07891707553351945</v>
       </c>
       <c r="G97">
-        <v>0.009864084759843619</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02421776079082122</v>
+      </c>
+      <c r="H97">
+        <v>-0.1022584815108867</v>
+      </c>
+      <c r="I97">
+        <v>-0.04411625014766118</v>
+      </c>
+      <c r="J97">
+        <v>-0.01092062505880562</v>
+      </c>
+      <c r="K97">
+        <v>-0.004570068069062816</v>
+      </c>
+      <c r="L97">
+        <v>0.05786616093973489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.3096785238306366</v>
+        <v>0.2603239356573156</v>
       </c>
       <c r="C98">
-        <v>-0.09055715018942773</v>
+        <v>-0.09287937343840412</v>
       </c>
       <c r="D98">
-        <v>0.1110869704208783</v>
+        <v>0.04794215245439308</v>
       </c>
       <c r="E98">
-        <v>-0.2220758546410519</v>
+        <v>-0.0162468315102709</v>
       </c>
       <c r="F98">
-        <v>-0.247817865923049</v>
+        <v>-0.3926785267515909</v>
       </c>
       <c r="G98">
-        <v>-0.3148879139040231</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2105795536648028</v>
+      </c>
+      <c r="H98">
+        <v>0.05958609329448984</v>
+      </c>
+      <c r="I98">
+        <v>0.2052670541252604</v>
+      </c>
+      <c r="J98">
+        <v>0.0553751341250092</v>
+      </c>
+      <c r="K98">
+        <v>0.4539839483297598</v>
+      </c>
+      <c r="L98">
+        <v>0.3138912690244388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.08239826982082182</v>
+        <v>0.06386066174733725</v>
       </c>
       <c r="C99">
-        <v>-0.03162216259953015</v>
+        <v>-0.03444929435165122</v>
       </c>
       <c r="D99">
-        <v>0.01726265653778218</v>
+        <v>0.02102825665309424</v>
       </c>
       <c r="E99">
-        <v>0.02147613572054776</v>
+        <v>-0.008045735639297436</v>
       </c>
       <c r="F99">
-        <v>0.03279430211878107</v>
+        <v>-0.007376582444538383</v>
       </c>
       <c r="G99">
-        <v>0.0395848401230367</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01149119785498279</v>
+      </c>
+      <c r="H99">
+        <v>0.02441946359904557</v>
+      </c>
+      <c r="I99">
+        <v>0.007706017033886994</v>
+      </c>
+      <c r="J99">
+        <v>0.04752704735277208</v>
+      </c>
+      <c r="K99">
+        <v>-0.02139095442222496</v>
+      </c>
+      <c r="L99">
+        <v>0.005489608871359082</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0008088461256529029</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.002974234325017236</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.06553765883403828</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.02098600078995925</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03517514861242208</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.007050510782970478</v>
+      </c>
+      <c r="H100">
+        <v>0.0005254819680191305</v>
+      </c>
+      <c r="I100">
+        <v>0.0626388313977586</v>
+      </c>
+      <c r="J100">
+        <v>-0.007475651509383628</v>
+      </c>
+      <c r="K100">
+        <v>0.07394993683703945</v>
+      </c>
+      <c r="L100">
+        <v>0.01866787917096963</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05423357312753388</v>
+        <v>0.03992686146393886</v>
       </c>
       <c r="C101">
-        <v>-0.007768318379785326</v>
+        <v>-0.02477276225550953</v>
       </c>
       <c r="D101">
-        <v>0.01619415172720887</v>
+        <v>0.02544709708930749</v>
       </c>
       <c r="E101">
-        <v>0.03331982061624423</v>
+        <v>0.0008205021225622216</v>
       </c>
       <c r="F101">
-        <v>0.03278830906864696</v>
+        <v>0.05384065471109078</v>
       </c>
       <c r="G101">
-        <v>-0.004196019879277527</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03043006134117114</v>
+      </c>
+      <c r="H101">
+        <v>0.01758233328071589</v>
+      </c>
+      <c r="I101">
+        <v>0.001057098393783423</v>
+      </c>
+      <c r="J101">
+        <v>-0.03037416715526092</v>
+      </c>
+      <c r="K101">
+        <v>0.09466737906935199</v>
+      </c>
+      <c r="L101">
+        <v>-0.02274425289974372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
